--- a/DiscordChatExporter.Stats/template_stats.xlsx
+++ b/DiscordChatExporter.Stats/template_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph Tauchner\Desktop\Dateien\Freizeit\DiscordChatExporter\DiscordChatExporter.Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574D32EE-F102-4F8F-B236-7CCE72B1B1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCDA9D5-51F1-4CC6-A901-9057E8B089A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,6 +129,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Messages</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> over Date</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -142,13 +178,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -179,17 +221,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>[0]!DateValues</c:f>
@@ -240,6 +314,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Date (ISO 8601 YYYY-MM-DD)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -248,9 +375,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -264,9 +391,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -294,9 +420,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -304,6 +430,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Messages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -322,9 +501,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -359,17 +537,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -406,6 +595,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Messages total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> at time of day</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -419,13 +644,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -456,32 +687,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TimeStats!$A$2:$A$24</c:f>
+              <c:f>TimeStats!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TimeStats!$B$2:$B$24</c:f>
+              <c:f>TimeStats!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -511,17 +748,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -535,9 +825,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -566,9 +855,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -576,6 +865,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Messages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -594,9 +936,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -631,17 +972,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -744,35 +1096,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -780,26 +1130,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -808,9 +1166,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -829,14 +1186,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -845,45 +1194,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -895,31 +1234,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -937,21 +1274,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -961,20 +1295,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -988,14 +1322,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1009,9 +1343,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1025,12 +1358,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1042,9 +1369,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1059,14 +1386,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1078,14 +1404,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1097,14 +1423,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1113,14 +1438,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1128,7 +1452,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1141,11 +1465,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1153,14 +1487,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1172,12 +1506,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1193,7 +1534,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1202,9 +1542,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1214,7 +1553,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1222,9 +1561,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1235,9 +1574,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1249,46 +1587,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1296,26 +1626,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1324,9 +1662,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1345,14 +1682,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1361,45 +1690,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1411,31 +1730,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1453,21 +1770,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1477,20 +1791,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1504,14 +1818,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1525,9 +1839,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1541,12 +1854,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1558,9 +1865,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1575,14 +1882,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1594,14 +1900,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1613,14 +1919,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1629,14 +1934,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1644,7 +1948,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1657,11 +1961,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1669,14 +1983,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1688,12 +2002,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1709,7 +2030,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1718,9 +2038,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1730,7 +2049,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1738,9 +2057,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1751,9 +2070,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1765,12 +2083,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1780,15 +2092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1826,10 +2138,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2159,7 +2471,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,6 +2485,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>SUM(B:B)</f>
         <v>1</v>
       </c>
       <c r="M1" s="2"/>
@@ -2197,7 +2513,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DiscordChatExporter.Stats/template_stats.xlsx
+++ b/DiscordChatExporter.Stats/template_stats.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph Tauchner\Desktop\Dateien\Freizeit\DiscordChatExporter\DiscordChatExporter.Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCDA9D5-51F1-4CC6-A901-9057E8B089A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C498A22-D7F1-4B0A-87C8-481E2DEA7FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateStats" sheetId="1" r:id="rId1"/>
     <sheet name="TimeStats" sheetId="2" r:id="rId2"/>
+    <sheet name="WeekdayStats" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TimeStats!$A$1:$B$24</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +50,30 @@
   <si>
     <t>Hour</t>
   </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -71,6 +96,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +280,36 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -262,7 +322,36 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:cat>
             <c:numRef>
@@ -1015,6 +1104,461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Messages total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> over Weekday</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WeekdayStats!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>WeekdayStats!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WeekdayStats!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A661-4C1A-93F5-8EA452295F63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="918736960"/>
+        <c:axId val="1266741920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="918736960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Weekday</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266741920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1266741920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Messages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918736960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1095,6 +1639,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1592,6 +2173,502 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2149,6 +3226,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF9DEBD-E75E-4F75-BA66-816134C3DDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E720EF-86F4-464B-B57F-1B7CAD5E191E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +3590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -2513,7 +3633,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,4 +3655,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B8C509-AB69-438E-9F18-9BA6A12D91BA}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DiscordChatExporter.Stats/template_stats.xlsx
+++ b/DiscordChatExporter.Stats/template_stats.xlsx
@@ -8,18 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph Tauchner\Desktop\Dateien\Freizeit\DiscordChatExporter\DiscordChatExporter.Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C498A22-D7F1-4B0A-87C8-481E2DEA7FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CAE1AD-7F84-4E18-80FE-70E98869F02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DateStats" sheetId="1" r:id="rId1"/>
-    <sheet name="TimeStats" sheetId="2" r:id="rId2"/>
-    <sheet name="WeekdayStats" sheetId="3" r:id="rId3"/>
+    <sheet name="WelcomeSheet" sheetId="4" r:id="rId1"/>
+    <sheet name="DateStats" sheetId="1" r:id="rId2"/>
+    <sheet name="TimeStats" sheetId="2" r:id="rId3"/>
+    <sheet name="WeekdayStats" sheetId="3" r:id="rId4"/>
+    <sheet name="CharacterStats" sheetId="5" r:id="rId5"/>
+    <sheet name="WordStats" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TimeStats!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TimeStats!$A$1:$B$24</definedName>
+    <definedName name="DateValues" localSheetId="4">OFFSET([1]DateStats!$A$2,,,COUNTA([1]DateStats!$A$2:$A$1048576),1)</definedName>
+    <definedName name="DateValues" localSheetId="0">OFFSET([1]DateStats!$A$2,,,COUNTA([1]DateStats!$A$2:$A$1048576),1)</definedName>
+    <definedName name="DateValues" localSheetId="5">OFFSET([1]DateStats!$A$2,,,COUNTA([1]DateStats!$A$2:$A$1048576),1)</definedName>
     <definedName name="DateValues">OFFSET(DateStats!$A$2,,,COUNTA(DateStats!$A$2:$A$1048576),1)</definedName>
+    <definedName name="MessagesValues" localSheetId="4">OFFSET([1]DateStats!$B$2,,,COUNTA([1]DateStats!$B$2:$B$1048576),1)</definedName>
+    <definedName name="MessagesValues" localSheetId="0">OFFSET([1]DateStats!$B$2,,,COUNTA([1]DateStats!$B$2:$B$1048576),1)</definedName>
+    <definedName name="MessagesValues" localSheetId="5">OFFSET([1]DateStats!$B$2,,,COUNTA([1]DateStats!$B$2:$B$1048576),1)</definedName>
     <definedName name="MessagesValues">OFFSET(DateStats!$B$2,,,COUNTA(DateStats!$B$2:$B$1048576),1)</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -40,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +86,81 @@
   <si>
     <t>Sunday</t>
   </si>
+  <si>
+    <t>DISCORD CHAT EXPORTER</t>
+  </si>
+  <si>
+    <t>This are the statistics from</t>
+  </si>
+  <si>
+    <t>with the ChannelId</t>
+  </si>
+  <si>
+    <t>There were a total of</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>The first message was on</t>
+  </si>
+  <si>
+    <t>and was sent by</t>
+  </si>
+  <si>
+    <t>The last message was on</t>
+  </si>
+  <si>
+    <t>The average day had</t>
+  </si>
+  <si>
+    <t>The day with the most messages was</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>The average message length was</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>characters sent</t>
+  </si>
+  <si>
+    <t>The character with the most occurences was</t>
+  </si>
+  <si>
+    <t>occurences</t>
+  </si>
+  <si>
+    <t>The word most often used was</t>
+  </si>
+  <si>
+    <t>It took the program</t>
+  </si>
+  <si>
+    <t>seconds to download and interpret the messages</t>
+  </si>
+  <si>
+    <t>The user with the most messages was</t>
+  </si>
+  <si>
+    <t>sent messages</t>
+  </si>
+  <si>
+    <t>Users writing in this channel</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -103,16 +190,41 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -120,14 +232,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,6 +1088,78 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -808,6 +1169,78 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1263,6 +1696,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3291,6 +3745,182 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="WelcomeSheet"/>
+      <sheetName val="DateStats"/>
+      <sheetName val="TimeStats"/>
+      <sheetName val="WeekdayStats"/>
+      <sheetName val="CharacterStats"/>
+      <sheetName val="WordStats"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2">
+            <v>44012</v>
+          </cell>
+          <cell r="B2">
+            <v>482</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>44013</v>
+          </cell>
+          <cell r="B3">
+            <v>437</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>44014</v>
+          </cell>
+          <cell r="B4">
+            <v>638</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>44015</v>
+          </cell>
+          <cell r="B5">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>44016</v>
+          </cell>
+          <cell r="B6">
+            <v>1006</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>44017</v>
+          </cell>
+          <cell r="B7">
+            <v>614</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>44018</v>
+          </cell>
+          <cell r="B8">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>44019</v>
+          </cell>
+          <cell r="B9">
+            <v>147</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>44020</v>
+          </cell>
+          <cell r="B10">
+            <v>351</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>44021</v>
+          </cell>
+          <cell r="B11">
+            <v>429</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>44022</v>
+          </cell>
+          <cell r="B12">
+            <v>212</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>44023</v>
+          </cell>
+          <cell r="B13">
+            <v>329</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>44024</v>
+          </cell>
+          <cell r="B14">
+            <v>194</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>44025</v>
+          </cell>
+          <cell r="B15">
+            <v>268</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>44026</v>
+          </cell>
+          <cell r="B16">
+            <v>118</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>44027</v>
+          </cell>
+          <cell r="B17">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>44028</v>
+          </cell>
+          <cell r="B18">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>44029</v>
+          </cell>
+          <cell r="B19">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>44030</v>
+          </cell>
+          <cell r="B20">
+            <v>18</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3587,11 +4217,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B4B4C2-81DF-4215-BBB9-454D5A0480A0}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,12 +4508,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341E9B66-A281-4784-84AF-75A359E58FA9}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,6 +4524,198 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3657,12 +4729,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B8C509-AB69-438E-9F18-9BA6A12D91BA}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,35 +4754,56 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3718,4 +4811,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F2D7BD-9079-4BAE-89A7-4C264B6004E2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919CAE1E-ACA9-4548-8CAF-59D4047ED7DF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DiscordChatExporter.Stats/template_stats.xlsx
+++ b/DiscordChatExporter.Stats/template_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph Tauchner\Desktop\Dateien\Freizeit\DiscordChatExporter\DiscordChatExporter.Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CAE1AD-7F84-4E18-80FE-70E98869F02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DFE749-3977-45B4-B506-BBE8A034380E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30840" yWindow="-540" windowWidth="30960" windowHeight="16920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WelcomeSheet" sheetId="4" r:id="rId1"/>
@@ -382,15 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -417,6 +408,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4220,7 +4220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B4B4C2-81DF-4215-BBB9-454D5A0480A0}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4234,227 +4234,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4844,7 +4844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919CAE1E-ACA9-4548-8CAF-59D4047ED7DF}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
